--- a/FileCreationTool/FileCreationTool/Forms.xlsx
+++ b/FileCreationTool/FileCreationTool/Forms.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0F351579-F7E6-47F7-A880-243010AEDFC6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC8ECD99-8F97-47BA-BD56-83C0496A1740}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3" xr2:uid="{99400841-4EE0-4269-9D21-20194F5FB702}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="4" xr2:uid="{99400841-4EE0-4269-9D21-20194F5FB702}"/>
   </bookViews>
   <sheets>
     <sheet name="Hurricane" sheetId="1" r:id="rId1"/>
     <sheet name="Vacancy" sheetId="2" r:id="rId2"/>
     <sheet name="HomeBusiness" sheetId="5" r:id="rId3"/>
-    <sheet name="Roof" sheetId="7" r:id="rId4"/>
-    <sheet name="Historic" sheetId="4" r:id="rId5"/>
+    <sheet name="UTW" sheetId="8" r:id="rId4"/>
+    <sheet name="Brush" sheetId="9" r:id="rId5"/>
+    <sheet name="Roof" sheetId="7" r:id="rId6"/>
+    <sheet name="Historic" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -23,8 +25,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{8802FA60-95E3-45EA-BA4D-2207F827C007}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Changed Dense/Medium to red (used to be black)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{0979FE9E-CDA2-4FA4-BE73-4B469FD061B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+none of the answers were indicated as the hazard</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A48" authorId="0" shapeId="0" xr:uid="{EA5920C5-5768-4320-A720-0B21ECDDC0E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Elaborate on all (*) asterisk answers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{0693F518-8626-4305-9E75-19221CE199A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+generalcomments</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="428">
   <si>
     <t>Form Question 
 (Pretty Name)</t>
@@ -681,9 +789,6 @@
     <t>How many full-time</t>
   </si>
   <si>
-    <t>Required if "Are there any full or part-time employees connected to the business "Yes"</t>
-  </si>
-  <si>
     <t>employeesfulltime</t>
   </si>
   <si>
@@ -705,9 +810,6 @@
     <t>Any commercial appliances</t>
   </si>
   <si>
-    <t>Required if "Does the business involve food services? = "Yes"</t>
-  </si>
-  <si>
     <t>commercialappliances</t>
   </si>
   <si>
@@ -733,9 +835,6 @@
   </si>
   <si>
     <t>ingredientslabeled</t>
-  </si>
-  <si>
-    <t>Required if "Are food items and ingredients clearly labeled" is "Yes"</t>
   </si>
   <si>
     <t>ingredientslabeleddesc</t>
@@ -1357,6 +1456,761 @@
   <si>
     <t>YES;NO -</t>
   </si>
+  <si>
+    <t>Required if "Are there any full or part-time employees connected to the business" is "Yes"</t>
+  </si>
+  <si>
+    <t>Required if "Does the business involve food services?" is "Yes"</t>
+  </si>
+  <si>
+    <t>Required if "Are food items and ingredients clearly labeled?" is "Yes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason for Unable to Work </t>
+  </si>
+  <si>
+    <t>Agent Contact 1st Attempt Date and Time</t>
+  </si>
+  <si>
+    <t>Agent Contact 1st Attempt Result</t>
+  </si>
+  <si>
+    <t>Agent Contact 2nd Attempt Date and Time</t>
+  </si>
+  <si>
+    <t>Agent Contact 2nd Attempt Result</t>
+  </si>
+  <si>
+    <t>Insured Contact 1st Attempt Date and Time</t>
+  </si>
+  <si>
+    <t>Insured Contact Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>Unable to Map/Locate;
+Policy Cancelled;
+Unable to Access - Animal;
+Unable to Access - Gated;
+Unable to Access – Other;
+Policy Holder Refused Inspection;
+Under Construction;
+Agent Unable to Provide Directions;
+Other;
+Duplicate;</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>agent1time</t>
+  </si>
+  <si>
+    <t>agent1result</t>
+  </si>
+  <si>
+    <t>agent2time</t>
+  </si>
+  <si>
+    <t>agent2result</t>
+  </si>
+  <si>
+    <t>insured1time</t>
+  </si>
+  <si>
+    <t>insured1result</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>UNMAP;
+POLCAN;
+UNANIMAL;
+UNGATED;
+UNOTHER;
+REF;
+UNDCONSTR;
+UNDIR;
+OTHER;
+DUP;</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>Person Interviewed</t>
+  </si>
+  <si>
+    <t>Name of Person Interviewed</t>
+  </si>
+  <si>
+    <t>Occupant</t>
+  </si>
+  <si>
+    <t>PHYSICAL</t>
+  </si>
+  <si>
+    <t>Dwelling Type</t>
+  </si>
+  <si>
+    <t>Dwelling Age</t>
+  </si>
+  <si>
+    <t>Number of Stories</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Faced with</t>
+  </si>
+  <si>
+    <t>If Other, explain</t>
+  </si>
+  <si>
+    <t>Roof Type</t>
+  </si>
+  <si>
+    <t>PROTECTION</t>
+  </si>
+  <si>
+    <t>Is dwelling inside city limits?</t>
+  </si>
+  <si>
+    <t>Has the wood shake roof been treated?</t>
+  </si>
+  <si>
+    <t>Is the roof sprinklered?</t>
+  </si>
+  <si>
+    <t>Does the chimney have a spark arrestor?</t>
+  </si>
+  <si>
+    <t>ACCESSIBILITY</t>
+  </si>
+  <si>
+    <t>Can the house be accessed from at least two different routes?</t>
+  </si>
+  <si>
+    <t>Is the access road paved?</t>
+  </si>
+  <si>
+    <t>Is the house address clearly visible from the street?</t>
+  </si>
+  <si>
+    <t>Is the access street winding?</t>
+  </si>
+  <si>
+    <t>Is the house on a dead end street?</t>
+  </si>
+  <si>
+    <t>BRUSH AND RELATED EXPOSURES</t>
+  </si>
+  <si>
+    <t>North - Distance (feet)</t>
+  </si>
+  <si>
+    <t>North - Type</t>
+  </si>
+  <si>
+    <t>North - Property on a 20 degree Slope</t>
+  </si>
+  <si>
+    <t>South - Distance (feet)</t>
+  </si>
+  <si>
+    <t>South - Type</t>
+  </si>
+  <si>
+    <t>South - Property on a 20 degree Slope</t>
+  </si>
+  <si>
+    <t>East - Distance (feet)</t>
+  </si>
+  <si>
+    <t>East - Type</t>
+  </si>
+  <si>
+    <t>East- Property on a 20 degree Slope</t>
+  </si>
+  <si>
+    <t>West - Distance (feet)</t>
+  </si>
+  <si>
+    <t>West - Type</t>
+  </si>
+  <si>
+    <t>West- Property on a 20 degree Slope</t>
+  </si>
+  <si>
+    <t>The above vegetation is:</t>
+  </si>
+  <si>
+    <t>Is there defencible space &gt;= 100 feet?</t>
+  </si>
+  <si>
+    <t>Planted landscaping is:</t>
+  </si>
+  <si>
+    <t>Does the house have an open foundation?</t>
+  </si>
+  <si>
+    <t>Any visible brush or debris under the house?</t>
+  </si>
+  <si>
+    <t>Are tall trees overhanging the roof?</t>
+  </si>
+  <si>
+    <t>Any visible needles or leaves on the roof?</t>
+  </si>
+  <si>
+    <t>Is property vacant or a seasonal dwelling?</t>
+  </si>
+  <si>
+    <t>Any visible poor upkeep of house or premises?</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11
+5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5
+3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>interviewname</t>
+  </si>
+  <si>
+    <t>occupancy</t>
+  </si>
+  <si>
+    <t>dwellingtype</t>
+  </si>
+  <si>
+    <t>dwellingage</t>
+  </si>
+  <si>
+    <t>stories</t>
+  </si>
+  <si>
+    <t>construction</t>
+  </si>
+  <si>
+    <t>exteriorwalls</t>
+  </si>
+  <si>
+    <t>exteriorwallsother</t>
+  </si>
+  <si>
+    <t>rooftype</t>
+  </si>
+  <si>
+    <t>withincitylimits</t>
+  </si>
+  <si>
+    <t>roofwoodtreated</t>
+  </si>
+  <si>
+    <t>roofsprinklered</t>
+  </si>
+  <si>
+    <t>chimneysparkarrestor</t>
+  </si>
+  <si>
+    <t>twoaccessroutes</t>
+  </si>
+  <si>
+    <t>pavedaccess</t>
+  </si>
+  <si>
+    <t>homevisible</t>
+  </si>
+  <si>
+    <t>windingstreet</t>
+  </si>
+  <si>
+    <t>deadendstreet</t>
+  </si>
+  <si>
+    <t>northbrushdist</t>
+  </si>
+  <si>
+    <t>northbrushtype</t>
+  </si>
+  <si>
+    <t>northbrushslope</t>
+  </si>
+  <si>
+    <t>southbrushdist</t>
+  </si>
+  <si>
+    <t>southbrushtype</t>
+  </si>
+  <si>
+    <t>southbrushslope</t>
+  </si>
+  <si>
+    <t>eastbrushdist</t>
+  </si>
+  <si>
+    <t>eastbrushtype</t>
+  </si>
+  <si>
+    <t>eastbrushslope</t>
+  </si>
+  <si>
+    <t>westbrushdist</t>
+  </si>
+  <si>
+    <t>westbrushtype</t>
+  </si>
+  <si>
+    <t>westbrushslope</t>
+  </si>
+  <si>
+    <t>vegetationdensity</t>
+  </si>
+  <si>
+    <t>vegetationcleared</t>
+  </si>
+  <si>
+    <t>landscapedensity</t>
+  </si>
+  <si>
+    <t>openfoundation</t>
+  </si>
+  <si>
+    <t>brushunderhouse</t>
+  </si>
+  <si>
+    <t>overhangingtrees</t>
+  </si>
+  <si>
+    <t>leavesonroof</t>
+  </si>
+  <si>
+    <t>vacantorseasonal</t>
+  </si>
+  <si>
+    <t>poorupkeep</t>
+  </si>
+  <si>
+    <t>additionalcomments</t>
+  </si>
+  <si>
+    <t>Brush;Forest Areas;Native Growth;Wild Grass</t>
+  </si>
+  <si>
+    <t>Dense;Medium;Sparse</t>
+  </si>
+  <si>
+    <t>BRUSH;FOREST;NATIVE;WILD</t>
+  </si>
+  <si>
+    <t>Hazard Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if inspection answer is Mobile Home and Policy Type not in ( F02,F03,F05) then hazard weight of 11
+ If inspection answer is Mobile Home and Policy Type in (F02,F03,F05) then hazard weight of 3</t>
+  </si>
+  <si>
+    <t>If &lt; 1000 ft hazard trigger hazard weight of 11</t>
+  </si>
+  <si>
+    <t>Owner;
+Tenant;</t>
+  </si>
+  <si>
+    <t>Single;
+Duplex;
+Triplex;
+Fourplex;</t>
+  </si>
+  <si>
+    <t>1 Story;
+1.5 Stories;
+2 Stories;
+2.5 Stories;
+3 Stories;
+3.5 Stories;
+4 Stories;
+4 Level Split;
+Bi-Level;
+Tri-Level;</t>
+  </si>
+  <si>
+    <t>Yes;
+No;
+N/A;</t>
+  </si>
+  <si>
+    <t>Forest Area;
+Brush;
+Native Growth;
+Wild Grass;</t>
+  </si>
+  <si>
+    <t>Owner;Tenant;</t>
+  </si>
+  <si>
+    <t>OWNR;
+TENANT;</t>
+  </si>
+  <si>
+    <t>1;
+1.5;
+2;
+2.5;
+3;
+3.5;
+4;
+4LS;
+BILVL;
+TRILVL;</t>
+  </si>
+  <si>
+    <t>Block;Brick;Frame;Mobile Home;Modular Home;</t>
+  </si>
+  <si>
+    <t>SINGL;DUP;TRIPLX;FPLX;</t>
+  </si>
+  <si>
+    <t>Single;Duplex;Triplex;Fourplex;</t>
+  </si>
+  <si>
+    <t>Yes;No;N/A;</t>
+  </si>
+  <si>
+    <t>Composition Shingle;
+Clay Tile;
+Tar and Gravel;
+Wood Shake;
+Concrete Tile;
+Other;</t>
+  </si>
+  <si>
+    <t>FOREST;BRUSH;NATIVE;WILD;</t>
+  </si>
+  <si>
+    <t>Forest Areas;Brush;Native Growth;Wild Grass;</t>
+  </si>
+  <si>
+    <t>FOREST;BRUSH;NATIVE;WILD</t>
+  </si>
+  <si>
+    <t>Forest Areas;Brush;Native Growth;Wild Grass</t>
+  </si>
+  <si>
+    <t>YES;NO;</t>
+  </si>
+  <si>
+    <t>Wood Siding;
+Stucco;
+Brick Veneer;
+Composition;
+EIFS;
+Other;</t>
+  </si>
+  <si>
+    <t>1 Story;
+1.5 Stories;
+2 Stories;
+2.5 Stories;
+3 Stories;
+3.5 Stories;
+4 Level Split;
+4 Stories;
+Bi-level;
+Tri-level;</t>
+  </si>
+  <si>
+    <t>YES;NO;NA;</t>
+  </si>
+  <si>
+    <t>YES;
+NO;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Block;
+Brick;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frame;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mobile Home;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modular Home;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wood Siding;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Stucco;
+Brick Veneer;
+Composition;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EIFS;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Other;</t>
+    </r>
+  </si>
+  <si>
+    <t>WOOD-;
+STCCO;
+BRKVENR;
+COMP;
+EIFS-;
+OTHER;</t>
+  </si>
+  <si>
+    <t>BLK;BRCK;FRME-;MH;MODHME-;</t>
+  </si>
+  <si>
+    <t>COMP;
+CLAY;
+TARGRVL;
+WOOD-;
+CONC;
+OTHER;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Composition Shingle;
+Clay Tile;
+Tar and Gravel;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wood Shake;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Concrete Tile;
+Other;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yes;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+No;</t>
+    </r>
+  </si>
+  <si>
+    <t>YES-;NO;</t>
+  </si>
+  <si>
+    <t>DENSE-;MEDIUM-;SPARSE-;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dense;
+Medium;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sparse;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dense;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Medium;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Sparse;</t>
+    </r>
+  </si>
+  <si>
+    <t>3
+3</t>
+  </si>
 </sst>
 </file>
 
@@ -1365,7 +2219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,8 +2374,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1574,6 +2447,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1599,7 +2490,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1617,8 +2508,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1983,14 +2878,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Accent5" xfId="13" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="7" xr:uid="{C8ACF0D5-A6F5-45E2-AC17-D989F0B7D841}"/>
+    <cellStyle name="Normal 10 2" xfId="20" xr:uid="{ED97C402-FA96-4E35-A6AD-7EB3DC42CA88}"/>
     <cellStyle name="Normal 12 2" xfId="15" xr:uid="{47BAFEEB-9301-4983-8867-788236B13691}"/>
     <cellStyle name="Normal 13" xfId="16" xr:uid="{61437DD8-3411-4110-87DA-0BCE83C88111}"/>
     <cellStyle name="Normal 14 2" xfId="11" xr:uid="{75D63223-84A3-423A-9793-27FF30CFC91D}"/>
+    <cellStyle name="Normal 2 2 2 4 13" xfId="19" xr:uid="{795C81C3-7AE1-4FFA-A925-08BE3403D0AB}"/>
     <cellStyle name="Normal 2 2 2 4 15" xfId="1" xr:uid="{5A83BF5D-EAF1-446F-A33D-4EA9D81331E8}"/>
     <cellStyle name="Normal 2 2 2 4 2 2 2 9" xfId="2" xr:uid="{2A7F16CA-EBD0-4AB6-A5B4-A5D3139E069A}"/>
     <cellStyle name="Normal 2 2 5 17" xfId="14" xr:uid="{070FDC69-B97D-4347-922E-2941C0A32CB4}"/>
@@ -1999,6 +3037,8 @@
     <cellStyle name="Normal 26 4 12" xfId="8" xr:uid="{FC07FA6A-EFBE-401A-9E36-E8F3A9DE75CB}"/>
     <cellStyle name="Normal 27 4 12" xfId="9" xr:uid="{490B6E8F-D50C-4EF8-8A4C-380031C49843}"/>
     <cellStyle name="Normal 28 4 12" xfId="5" xr:uid="{C85B9373-5B18-4477-9EB1-27ECAF9CF99C}"/>
+    <cellStyle name="Normal 3" xfId="18" xr:uid="{53F43B6D-4099-48A1-A11E-0F8A6E2A4707}"/>
+    <cellStyle name="Normal 3 5" xfId="17" xr:uid="{FF8D4B20-A272-4055-96C6-F0275C6E9482}"/>
     <cellStyle name="Normal_E&amp;H" xfId="6" xr:uid="{6C61B672-5AFC-4830-98FD-97FFDFB2F606}"/>
     <cellStyle name="Normal_Exterior Hazard Form" xfId="4" xr:uid="{8DBFC88E-0342-4A8B-8D56-56C159A92220}"/>
     <cellStyle name="Normal_Roof" xfId="3" xr:uid="{BCBDA862-93F1-47C4-9C14-7C167E2DE06D}"/>
@@ -2281,7 +3321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -2356,7 +3396,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C2" s="4">
         <v>11</v>
@@ -2386,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>120</v>
@@ -2533,7 +3573,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C7" s="17">
         <v>11</v>
@@ -2563,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>120</v>
@@ -2613,7 +3653,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C9" s="17">
         <v>5</v>
@@ -2643,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>61</v>
@@ -2730,7 +3770,7 @@
         <v>121</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C12" s="17">
         <v>11</v>
@@ -2760,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>120</v>
@@ -3156,7 +4196,7 @@
     </row>
     <row r="2" spans="1:45" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B2" s="109"/>
       <c r="C2" s="109"/>
@@ -3250,7 +4290,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C4" s="42">
         <v>11</v>
@@ -3282,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O4" s="45" t="s">
         <v>124</v>
@@ -3294,7 +4334,7 @@
         <v>84</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C5" s="42">
         <v>11</v>
@@ -3326,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O5" s="45" t="s">
         <v>124</v>
@@ -3338,7 +4378,7 @@
         <v>86</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C6" s="42">
         <v>11</v>
@@ -3370,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O6" s="38" t="s">
         <v>120</v>
@@ -3382,7 +4422,7 @@
         <v>88</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C7" s="46">
         <v>11</v>
@@ -3414,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O7" s="45" t="s">
         <v>124</v>
@@ -3430,8 +4470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D297CBDD-A81F-4E1E-9769-C766012E197B}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3502,12 +4542,12 @@
         <v>15</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C2" s="87">
         <v>11</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="135" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="87"/>
@@ -3534,7 +4574,7 @@
         <v>100</v>
       </c>
       <c r="N2" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O2" s="75" t="s">
         <v>120</v>
@@ -3546,7 +4586,7 @@
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="87"/>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="136" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="87"/>
@@ -3581,7 +4621,7 @@
       </c>
       <c r="B4" s="94"/>
       <c r="C4" s="88"/>
-      <c r="D4" s="93"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="88"/>
       <c r="F4" s="69"/>
       <c r="G4" s="95" t="s">
@@ -3613,10 +4653,10 @@
         <v>136</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C5" s="88"/>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="136" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="88"/>
@@ -3655,7 +4695,7 @@
       </c>
       <c r="B6" s="97"/>
       <c r="C6" s="88"/>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="135" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="88"/>
@@ -3689,12 +4729,12 @@
         <v>142</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C7" s="88">
         <v>11</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="135" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="88"/>
@@ -3721,7 +4761,7 @@
         <v>100</v>
       </c>
       <c r="N7" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O7" s="75" t="s">
         <v>120</v>
@@ -3732,10 +4772,10 @@
         <v>144</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C8" s="88"/>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="135" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="88"/>
@@ -3774,7 +4814,7 @@
       </c>
       <c r="B9" s="96"/>
       <c r="C9" s="88"/>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="135" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="88"/>
@@ -3808,10 +4848,10 @@
         <v>149</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" s="96"/>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="135" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="96"/>
@@ -3850,7 +4890,7 @@
       </c>
       <c r="B11" s="96"/>
       <c r="C11" s="96"/>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="136" t="s">
         <v>152</v>
       </c>
       <c r="E11" s="96"/>
@@ -3885,7 +4925,7 @@
       </c>
       <c r="B12" s="96"/>
       <c r="C12" s="96"/>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="135" t="s">
         <v>147</v>
       </c>
       <c r="E12" s="96"/>
@@ -3920,7 +4960,7 @@
       </c>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="135" t="s">
         <v>147</v>
       </c>
       <c r="E13" s="96"/>
@@ -3954,12 +4994,12 @@
         <v>158</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C14" s="34">
         <v>11</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="133" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="34"/>
@@ -3986,7 +5026,7 @@
         <v>100</v>
       </c>
       <c r="N14" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O14" s="75" t="s">
         <v>120</v>
@@ -3998,7 +5038,7 @@
       </c>
       <c r="B15" s="96"/>
       <c r="C15" s="96"/>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="136" t="s">
         <v>161</v>
       </c>
       <c r="E15" s="96"/>
@@ -4033,7 +5073,7 @@
       </c>
       <c r="B16" s="96"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="136" t="s">
         <v>161</v>
       </c>
       <c r="E16" s="96"/>
@@ -4067,12 +5107,12 @@
         <v>165</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C17" s="34">
         <v>11</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="133" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="34"/>
@@ -4099,7 +5139,7 @@
         <v>100</v>
       </c>
       <c r="N17" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O17" s="75" t="s">
         <v>120</v>
@@ -4111,7 +5151,7 @@
       </c>
       <c r="B18" s="96"/>
       <c r="C18" s="96"/>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="136" t="s">
         <v>167</v>
       </c>
       <c r="E18" s="96"/>
@@ -4145,12 +5185,12 @@
         <v>169</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C19" s="34">
         <v>11</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="133" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="34"/>
@@ -4177,7 +5217,7 @@
         <v>100</v>
       </c>
       <c r="N19" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O19" s="75" t="s">
         <v>120</v>
@@ -4189,7 +5229,7 @@
       </c>
       <c r="B20" s="96"/>
       <c r="C20" s="96"/>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="136" t="s">
         <v>171</v>
       </c>
       <c r="E20" s="96"/>
@@ -4223,12 +5263,12 @@
         <v>173</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C21" s="34">
         <v>11</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="133" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="34"/>
@@ -4255,7 +5295,7 @@
         <v>100</v>
       </c>
       <c r="N21" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O21" s="75" t="s">
         <v>120</v>
@@ -4267,7 +5307,7 @@
       </c>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="136" t="s">
         <v>175</v>
       </c>
       <c r="E22" s="96"/>
@@ -4299,12 +5339,12 @@
         <v>177</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C23" s="34">
         <v>11</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="132" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="34"/>
@@ -4331,7 +5371,7 @@
         <v>100</v>
       </c>
       <c r="N23" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O23" s="75" t="s">
         <v>120</v>
@@ -4343,7 +5383,7 @@
       </c>
       <c r="B24" s="96"/>
       <c r="C24" s="96"/>
-      <c r="D24" s="93" t="s">
+      <c r="D24" s="136" t="s">
         <v>179</v>
       </c>
       <c r="E24" s="96"/>
@@ -4377,12 +5417,12 @@
         <v>181</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C25" s="34">
         <v>11</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="132" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="34"/>
@@ -4409,7 +5449,7 @@
         <v>100</v>
       </c>
       <c r="N25" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O25" s="75" t="s">
         <v>120</v>
@@ -4421,13 +5461,13 @@
       </c>
       <c r="B26" s="96"/>
       <c r="C26" s="96"/>
-      <c r="D26" s="93" t="s">
-        <v>184</v>
+      <c r="D26" s="135" t="s">
+        <v>275</v>
       </c>
       <c r="E26" s="96"/>
       <c r="F26" s="68"/>
       <c r="G26" s="92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H26" s="70" t="s">
         <v>24</v>
@@ -4452,17 +5492,17 @@
     </row>
     <row r="27" spans="1:15" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" s="96"/>
       <c r="C27" s="96"/>
-      <c r="D27" s="93" t="s">
-        <v>184</v>
+      <c r="D27" s="135" t="s">
+        <v>275</v>
       </c>
       <c r="E27" s="96"/>
       <c r="F27" s="68"/>
       <c r="G27" s="92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H27" s="75" t="s">
         <v>24</v>
@@ -4487,11 +5527,11 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="72"/>
       <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
+      <c r="D28" s="134"/>
       <c r="E28" s="72"/>
       <c r="F28" s="73"/>
       <c r="G28" s="72"/>
@@ -4506,19 +5546,19 @@
     </row>
     <row r="29" spans="1:15" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C29" s="76"/>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="132" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="76"/>
       <c r="F29" s="76"/>
       <c r="G29" s="76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H29" s="101" t="s">
         <v>24</v>
@@ -4547,21 +5587,21 @@
     </row>
     <row r="30" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="102" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C30" s="34">
         <v>11</v>
       </c>
-      <c r="D30" s="70" t="s">
-        <v>192</v>
+      <c r="D30" s="132" t="s">
+        <v>276</v>
       </c>
       <c r="E30" s="34"/>
       <c r="F30" s="68"/>
       <c r="G30" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H30" s="75" t="s">
         <v>24</v>
@@ -4582,7 +5622,7 @@
         <v>100</v>
       </c>
       <c r="N30" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O30" s="75" t="s">
         <v>120</v>
@@ -4594,13 +5634,13 @@
       </c>
       <c r="B31" s="103"/>
       <c r="C31" s="89"/>
-      <c r="D31" s="93" t="s">
-        <v>194</v>
+      <c r="D31" s="136" t="s">
+        <v>192</v>
       </c>
       <c r="E31" s="89"/>
       <c r="F31" s="68"/>
       <c r="G31" s="92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H31" s="75" t="s">
         <v>24</v>
@@ -4625,19 +5665,19 @@
     </row>
     <row r="32" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B32" s="103" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C32" s="34"/>
-      <c r="D32" s="70" t="s">
-        <v>192</v>
+      <c r="D32" s="132" t="s">
+        <v>276</v>
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="68"/>
       <c r="G32" s="92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H32" s="75" t="s">
         <v>24</v>
@@ -4670,13 +5710,13 @@
       </c>
       <c r="B33" s="103"/>
       <c r="C33" s="89"/>
-      <c r="D33" s="93" t="s">
-        <v>198</v>
+      <c r="D33" s="136" t="s">
+        <v>196</v>
       </c>
       <c r="E33" s="89"/>
       <c r="F33" s="68"/>
       <c r="G33" s="92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H33" s="75" t="s">
         <v>24</v>
@@ -4700,22 +5740,22 @@
       <c r="O33" s="75"/>
     </row>
     <row r="34" spans="1:15" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="76" t="s">
-        <v>200</v>
+      <c r="A34" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C34" s="89">
         <v>11</v>
       </c>
-      <c r="D34" s="70" t="s">
-        <v>192</v>
+      <c r="D34" s="132" t="s">
+        <v>276</v>
       </c>
       <c r="E34" s="89"/>
       <c r="F34" s="68"/>
       <c r="G34" s="92" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H34" s="75" t="s">
         <v>24</v>
@@ -4736,7 +5776,7 @@
         <v>100</v>
       </c>
       <c r="N34" s="75" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O34" s="75" t="s">
         <v>120</v>
@@ -4748,13 +5788,13 @@
       </c>
       <c r="B35" s="103"/>
       <c r="C35" s="89"/>
-      <c r="D35" s="93" t="s">
-        <v>202</v>
+      <c r="D35" s="135" t="s">
+        <v>277</v>
       </c>
       <c r="E35" s="89"/>
       <c r="F35" s="99"/>
       <c r="G35" s="92" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H35" s="75" t="s">
         <v>24</v>
@@ -4779,21 +5819,21 @@
     </row>
     <row r="36" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="76" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B36" s="102" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C36" s="89">
         <v>11</v>
       </c>
-      <c r="D36" s="70" t="s">
-        <v>192</v>
+      <c r="D36" s="132" t="s">
+        <v>276</v>
       </c>
       <c r="E36" s="89"/>
       <c r="F36" s="68"/>
       <c r="G36" s="92" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H36" s="105" t="s">
         <v>24</v>
@@ -4814,7 +5854,7 @@
         <v>100</v>
       </c>
       <c r="N36" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O36" s="75" t="s">
         <v>120</v>
@@ -4826,13 +5866,13 @@
       </c>
       <c r="B37" s="103"/>
       <c r="C37" s="89"/>
-      <c r="D37" s="93" t="s">
-        <v>206</v>
+      <c r="D37" s="136" t="s">
+        <v>203</v>
       </c>
       <c r="E37" s="89"/>
       <c r="F37" s="99"/>
       <c r="G37" s="92" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H37" s="105" t="s">
         <v>24</v>
@@ -4862,11 +5902,2150 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F518693-AD00-4B33-AF3A-69E7497499C2}">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="15" max="15" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="137" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="141" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="142" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="142">
+        <v>100</v>
+      </c>
+      <c r="K2" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="146">
+        <v>1</v>
+      </c>
+      <c r="M2" s="146">
+        <v>100</v>
+      </c>
+      <c r="N2" s="140" t="s">
+        <v>295</v>
+      </c>
+      <c r="O2" s="140" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="137" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="139"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="141" t="s">
+        <v>288</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="142" t="s">
+        <v>296</v>
+      </c>
+      <c r="J3" s="142">
+        <v>100</v>
+      </c>
+      <c r="K3" s="143" t="s">
+        <v>296</v>
+      </c>
+      <c r="L3" s="146">
+        <v>1</v>
+      </c>
+      <c r="M3" s="146">
+        <v>100</v>
+      </c>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+    </row>
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="137" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="139"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="141" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="142" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="142">
+        <v>100</v>
+      </c>
+      <c r="K4" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="146">
+        <v>1</v>
+      </c>
+      <c r="M4" s="146">
+        <v>100</v>
+      </c>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="137" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="139"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="141" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="142" t="s">
+        <v>296</v>
+      </c>
+      <c r="J5" s="142">
+        <v>100</v>
+      </c>
+      <c r="K5" s="143" t="s">
+        <v>296</v>
+      </c>
+      <c r="L5" s="146">
+        <v>1</v>
+      </c>
+      <c r="M5" s="146">
+        <v>100</v>
+      </c>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+    </row>
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="139"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="141" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="142" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="142">
+        <v>100</v>
+      </c>
+      <c r="K6" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="146">
+        <v>1</v>
+      </c>
+      <c r="M6" s="146">
+        <v>100</v>
+      </c>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="137" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="139"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="141" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="142" t="s">
+        <v>296</v>
+      </c>
+      <c r="J7" s="142">
+        <v>100</v>
+      </c>
+      <c r="K7" s="143" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="146">
+        <v>1</v>
+      </c>
+      <c r="M7" s="146">
+        <v>100</v>
+      </c>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="137" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="139"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="141" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="142" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="142">
+        <v>100</v>
+      </c>
+      <c r="K8" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="146">
+        <v>1</v>
+      </c>
+      <c r="M8" s="146">
+        <v>100</v>
+      </c>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="138" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="138"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="138" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="144">
+        <v>3800</v>
+      </c>
+      <c r="K9" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="144">
+        <v>1</v>
+      </c>
+      <c r="M9" s="144">
+        <v>3800</v>
+      </c>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657C165E-5E08-42BA-B313-0B0D627027AC}">
+  <dimension ref="A1:O48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="165"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="14" max="14" width="31.88671875" customWidth="1"/>
+    <col min="15" max="15" width="50.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="171" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="147" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="147"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+    </row>
+    <row r="3" spans="1:15" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="148" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="164"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="167" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" s="151" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="151">
+        <v>100</v>
+      </c>
+      <c r="K3" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="151">
+        <v>0</v>
+      </c>
+      <c r="M3" s="151">
+        <v>100</v>
+      </c>
+      <c r="N3" s="173" t="s">
+        <v>414</v>
+      </c>
+      <c r="O3" s="173" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="148" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="151"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="167" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="151">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="151" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="151">
+        <v>0</v>
+      </c>
+      <c r="M4" s="151">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+    </row>
+    <row r="5" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="149" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="164"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="167" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="151">
+        <v>100</v>
+      </c>
+      <c r="K5" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="151">
+        <v>0</v>
+      </c>
+      <c r="M5" s="151">
+        <v>100</v>
+      </c>
+      <c r="N5" s="173" t="s">
+        <v>399</v>
+      </c>
+      <c r="O5" s="172" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="147" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="147"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+    </row>
+    <row r="7" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="150" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" s="164"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="167" t="s">
+        <v>349</v>
+      </c>
+      <c r="H7" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="151">
+        <v>100</v>
+      </c>
+      <c r="K7" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="151">
+        <v>0</v>
+      </c>
+      <c r="M7" s="151">
+        <v>100</v>
+      </c>
+      <c r="N7" s="172" t="s">
+        <v>402</v>
+      </c>
+      <c r="O7" s="172" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="150" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="151"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="167" t="s">
+        <v>350</v>
+      </c>
+      <c r="H8" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="151">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="151" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="151">
+        <v>0</v>
+      </c>
+      <c r="M8" s="151">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+    </row>
+    <row r="9" spans="1:15" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="150" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="164"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="167" t="s">
+        <v>351</v>
+      </c>
+      <c r="H9" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="151">
+        <v>100</v>
+      </c>
+      <c r="K9" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="151">
+        <v>0</v>
+      </c>
+      <c r="M9" s="151">
+        <v>100</v>
+      </c>
+      <c r="N9" s="173" t="s">
+        <v>400</v>
+      </c>
+      <c r="O9" s="173" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="151" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="153" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" s="151"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161" t="s">
+        <v>391</v>
+      </c>
+      <c r="G10" s="167" t="s">
+        <v>352</v>
+      </c>
+      <c r="H10" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="151">
+        <v>100</v>
+      </c>
+      <c r="K10" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="151">
+        <v>0</v>
+      </c>
+      <c r="M10" s="151">
+        <v>100</v>
+      </c>
+      <c r="N10" s="172" t="s">
+        <v>418</v>
+      </c>
+      <c r="O10" s="172" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="151" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" s="164" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" s="151"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="167" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="151">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="151">
+        <v>0</v>
+      </c>
+      <c r="M11" s="151">
+        <v>100</v>
+      </c>
+      <c r="N11" s="173" t="s">
+        <v>417</v>
+      </c>
+      <c r="O11" s="173" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="151" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="153"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="167" t="s">
+        <v>354</v>
+      </c>
+      <c r="H12" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="178" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="151">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="151" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="151">
+        <v>0</v>
+      </c>
+      <c r="M12" s="151">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
+    </row>
+    <row r="13" spans="1:15" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="151" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="154" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="164">
+        <v>11</v>
+      </c>
+      <c r="D13" s="151"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="167" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="178" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="151">
+        <v>100</v>
+      </c>
+      <c r="K13" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="151">
+        <v>0</v>
+      </c>
+      <c r="M13" s="151">
+        <v>100</v>
+      </c>
+      <c r="N13" s="173" t="s">
+        <v>419</v>
+      </c>
+      <c r="O13" s="173" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="147" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="147"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="147"/>
+    </row>
+    <row r="15" spans="1:15" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="151" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="164"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="167" t="s">
+        <v>356</v>
+      </c>
+      <c r="H15" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="151">
+        <v>100</v>
+      </c>
+      <c r="K15" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="151">
+        <v>0</v>
+      </c>
+      <c r="M15" s="151">
+        <v>100</v>
+      </c>
+      <c r="N15" s="172" t="s">
+        <v>410</v>
+      </c>
+      <c r="O15" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="155" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="164"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="167" t="s">
+        <v>357</v>
+      </c>
+      <c r="H16" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="151">
+        <v>100</v>
+      </c>
+      <c r="K16" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="151">
+        <v>0</v>
+      </c>
+      <c r="M16" s="151">
+        <v>100</v>
+      </c>
+      <c r="N16" s="172" t="s">
+        <v>413</v>
+      </c>
+      <c r="O16" s="172" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="151" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="164"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="167" t="s">
+        <v>358</v>
+      </c>
+      <c r="H17" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="151">
+        <v>100</v>
+      </c>
+      <c r="K17" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="151">
+        <v>0</v>
+      </c>
+      <c r="M17" s="151">
+        <v>100</v>
+      </c>
+      <c r="N17" s="172" t="s">
+        <v>410</v>
+      </c>
+      <c r="O17" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="151" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="164"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="167" t="s">
+        <v>359</v>
+      </c>
+      <c r="H18" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="151">
+        <v>100</v>
+      </c>
+      <c r="K18" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="151">
+        <v>0</v>
+      </c>
+      <c r="M18" s="151">
+        <v>100</v>
+      </c>
+      <c r="N18" s="172" t="s">
+        <v>410</v>
+      </c>
+      <c r="O18" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="147" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="147"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+    </row>
+    <row r="20" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20" s="151" t="s">
+        <v>315</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" s="88">
+        <v>3</v>
+      </c>
+      <c r="D20" s="151"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="167" t="s">
+        <v>360</v>
+      </c>
+      <c r="H20" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="151">
+        <v>100</v>
+      </c>
+      <c r="K20" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="151">
+        <v>0</v>
+      </c>
+      <c r="M20" s="151">
+        <v>100</v>
+      </c>
+      <c r="N20" s="172" t="s">
+        <v>251</v>
+      </c>
+      <c r="O20" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21" s="88">
+        <v>3</v>
+      </c>
+      <c r="D21" s="151"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="167" t="s">
+        <v>361</v>
+      </c>
+      <c r="H21" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="151">
+        <v>100</v>
+      </c>
+      <c r="K21" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="151">
+        <v>0</v>
+      </c>
+      <c r="M21" s="151">
+        <v>100</v>
+      </c>
+      <c r="N21" s="172" t="s">
+        <v>251</v>
+      </c>
+      <c r="O21" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+      <c r="A22" s="151" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="C22" s="88">
+        <v>3</v>
+      </c>
+      <c r="D22" s="151"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="167" t="s">
+        <v>362</v>
+      </c>
+      <c r="H22" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="151">
+        <v>100</v>
+      </c>
+      <c r="K22" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="151">
+        <v>0</v>
+      </c>
+      <c r="M22" s="151">
+        <v>100</v>
+      </c>
+      <c r="N22" s="172" t="s">
+        <v>251</v>
+      </c>
+      <c r="O22" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+      <c r="A23" s="151" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" s="88">
+        <v>3</v>
+      </c>
+      <c r="D23" s="151"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="167" t="s">
+        <v>363</v>
+      </c>
+      <c r="H23" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="151">
+        <v>100</v>
+      </c>
+      <c r="K23" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="151">
+        <v>0</v>
+      </c>
+      <c r="M23" s="151">
+        <v>100</v>
+      </c>
+      <c r="N23" s="172" t="s">
+        <v>251</v>
+      </c>
+      <c r="O23" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24" s="151" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="88">
+        <v>3</v>
+      </c>
+      <c r="D24" s="151"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="167" t="s">
+        <v>364</v>
+      </c>
+      <c r="H24" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="151">
+        <v>100</v>
+      </c>
+      <c r="K24" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="151">
+        <v>0</v>
+      </c>
+      <c r="M24" s="151">
+        <v>100</v>
+      </c>
+      <c r="N24" s="172" t="s">
+        <v>251</v>
+      </c>
+      <c r="O24" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="147" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" s="147"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="147"/>
+    </row>
+    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="151" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" s="156"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="161" t="s">
+        <v>392</v>
+      </c>
+      <c r="G26" s="167" t="s">
+        <v>365</v>
+      </c>
+      <c r="H26" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="178" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="151">
+        <v>200</v>
+      </c>
+      <c r="K26" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="151">
+        <v>0</v>
+      </c>
+      <c r="M26" s="151">
+        <v>9999</v>
+      </c>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+    </row>
+    <row r="27" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="C27" s="164"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="167" t="s">
+        <v>366</v>
+      </c>
+      <c r="H27" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="178" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="151">
+        <v>100</v>
+      </c>
+      <c r="K27" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="151">
+        <v>0</v>
+      </c>
+      <c r="M27" s="151">
+        <v>100</v>
+      </c>
+      <c r="N27" s="172" t="s">
+        <v>408</v>
+      </c>
+      <c r="O27" s="172" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" s="157" t="s">
+        <v>422</v>
+      </c>
+      <c r="C28" s="88">
+        <v>11</v>
+      </c>
+      <c r="D28" s="151"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="167" t="s">
+        <v>367</v>
+      </c>
+      <c r="H28" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="151">
+        <v>100</v>
+      </c>
+      <c r="K28" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="151">
+        <v>0</v>
+      </c>
+      <c r="M28" s="151">
+        <v>100</v>
+      </c>
+      <c r="N28" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="O28" s="173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="151" t="s">
+        <v>324</v>
+      </c>
+      <c r="B29" s="156"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="161" t="s">
+        <v>392</v>
+      </c>
+      <c r="G29" s="167" t="s">
+        <v>368</v>
+      </c>
+      <c r="H29" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="178" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="151">
+        <v>200</v>
+      </c>
+      <c r="K29" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="151">
+        <v>0</v>
+      </c>
+      <c r="M29" s="151">
+        <v>9999</v>
+      </c>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+    </row>
+    <row r="30" spans="1:15" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="151" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="C30" s="164"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="167" t="s">
+        <v>369</v>
+      </c>
+      <c r="H30" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="151">
+        <v>100</v>
+      </c>
+      <c r="K30" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="151">
+        <v>0</v>
+      </c>
+      <c r="M30" s="151">
+        <v>100</v>
+      </c>
+      <c r="N30" s="172" t="s">
+        <v>406</v>
+      </c>
+      <c r="O30" s="172" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="157" t="s">
+        <v>422</v>
+      </c>
+      <c r="C31" s="88">
+        <v>11</v>
+      </c>
+      <c r="D31" s="151"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="167" t="s">
+        <v>370</v>
+      </c>
+      <c r="H31" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="151">
+        <v>100</v>
+      </c>
+      <c r="K31" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="151">
+        <v>0</v>
+      </c>
+      <c r="M31" s="151">
+        <v>100</v>
+      </c>
+      <c r="N31" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="O31" s="173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="151" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="156"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="161" t="s">
+        <v>392</v>
+      </c>
+      <c r="G32" s="167" t="s">
+        <v>371</v>
+      </c>
+      <c r="H32" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="178" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="151">
+        <v>200</v>
+      </c>
+      <c r="K32" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="151">
+        <v>0</v>
+      </c>
+      <c r="M32" s="151">
+        <v>9999</v>
+      </c>
+      <c r="N32" s="167"/>
+      <c r="O32" s="167"/>
+    </row>
+    <row r="33" spans="1:15" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="151" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="C33" s="164"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="167" t="s">
+        <v>372</v>
+      </c>
+      <c r="H33" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="151">
+        <v>100</v>
+      </c>
+      <c r="K33" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="151">
+        <v>0</v>
+      </c>
+      <c r="M33" s="151">
+        <v>100</v>
+      </c>
+      <c r="N33" s="172" t="s">
+        <v>406</v>
+      </c>
+      <c r="O33" s="172" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" s="157" t="s">
+        <v>422</v>
+      </c>
+      <c r="C34" s="88">
+        <v>11</v>
+      </c>
+      <c r="D34" s="151"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="167" t="s">
+        <v>373</v>
+      </c>
+      <c r="H34" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="151">
+        <v>100</v>
+      </c>
+      <c r="K34" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="151">
+        <v>0</v>
+      </c>
+      <c r="M34" s="151">
+        <v>100</v>
+      </c>
+      <c r="N34" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="O34" s="173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="151" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" s="156"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="161" t="s">
+        <v>392</v>
+      </c>
+      <c r="G35" s="167" t="s">
+        <v>374</v>
+      </c>
+      <c r="H35" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="178" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="151">
+        <v>200</v>
+      </c>
+      <c r="K35" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="151">
+        <v>0</v>
+      </c>
+      <c r="M35" s="151">
+        <v>9999</v>
+      </c>
+      <c r="N35" s="167"/>
+      <c r="O35" s="167"/>
+    </row>
+    <row r="36" spans="1:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="151" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="C36" s="164"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="167" t="s">
+        <v>375</v>
+      </c>
+      <c r="H36" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="151">
+        <v>100</v>
+      </c>
+      <c r="K36" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="151">
+        <v>0</v>
+      </c>
+      <c r="M36" s="151">
+        <v>100</v>
+      </c>
+      <c r="N36" s="167" t="s">
+        <v>389</v>
+      </c>
+      <c r="O36" s="167" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" s="157" t="s">
+        <v>422</v>
+      </c>
+      <c r="C37" s="88">
+        <v>11</v>
+      </c>
+      <c r="D37" s="151"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="162"/>
+      <c r="G37" s="167" t="s">
+        <v>376</v>
+      </c>
+      <c r="H37" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="151">
+        <v>100</v>
+      </c>
+      <c r="K37" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="151">
+        <v>0</v>
+      </c>
+      <c r="M37" s="151">
+        <v>100</v>
+      </c>
+      <c r="N37" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="O37" s="173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="151" t="s">
+        <v>333</v>
+      </c>
+      <c r="B38" s="158" t="s">
+        <v>425</v>
+      </c>
+      <c r="C38" s="164" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="151"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="167" t="s">
+        <v>377</v>
+      </c>
+      <c r="H38" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="151">
+        <v>100</v>
+      </c>
+      <c r="K38" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="151">
+        <v>0</v>
+      </c>
+      <c r="M38" s="151">
+        <v>100</v>
+      </c>
+      <c r="N38" s="172" t="s">
+        <v>424</v>
+      </c>
+      <c r="O38" s="167" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" s="157" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39" s="164">
+        <v>5</v>
+      </c>
+      <c r="D39" s="151"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="167" t="s">
+        <v>378</v>
+      </c>
+      <c r="H39" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" s="151">
+        <v>100</v>
+      </c>
+      <c r="K39" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="151">
+        <v>0</v>
+      </c>
+      <c r="M39" s="151">
+        <v>100</v>
+      </c>
+      <c r="N39" s="172" t="s">
+        <v>251</v>
+      </c>
+      <c r="O39" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="151" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="C40" s="164" t="s">
+        <v>345</v>
+      </c>
+      <c r="D40" s="151"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="167" t="s">
+        <v>379</v>
+      </c>
+      <c r="H40" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="151">
+        <v>100</v>
+      </c>
+      <c r="K40" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="151">
+        <v>0</v>
+      </c>
+      <c r="M40" s="151">
+        <v>100</v>
+      </c>
+      <c r="N40" s="172" t="s">
+        <v>424</v>
+      </c>
+      <c r="O40" s="167" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="151" t="s">
+        <v>336</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C41" s="88">
+        <v>11</v>
+      </c>
+      <c r="D41" s="151"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="167" t="s">
+        <v>380</v>
+      </c>
+      <c r="H41" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="151">
+        <v>100</v>
+      </c>
+      <c r="K41" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="151">
+        <v>0</v>
+      </c>
+      <c r="M41" s="151">
+        <v>100</v>
+      </c>
+      <c r="N41" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="O41" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="151" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C42" s="88">
+        <v>5</v>
+      </c>
+      <c r="D42" s="151"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="167" t="s">
+        <v>381</v>
+      </c>
+      <c r="H42" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="151">
+        <v>100</v>
+      </c>
+      <c r="K42" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="151">
+        <v>0</v>
+      </c>
+      <c r="M42" s="151">
+        <v>100</v>
+      </c>
+      <c r="N42" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="O42" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="151" t="s">
+        <v>338</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C43" s="88">
+        <v>3</v>
+      </c>
+      <c r="D43" s="151"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="167" t="s">
+        <v>382</v>
+      </c>
+      <c r="H43" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" s="151">
+        <v>100</v>
+      </c>
+      <c r="K43" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="151">
+        <v>0</v>
+      </c>
+      <c r="M43" s="151">
+        <v>100</v>
+      </c>
+      <c r="N43" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="O43" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="151" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C44" s="88">
+        <v>3</v>
+      </c>
+      <c r="D44" s="151"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="167" t="s">
+        <v>383</v>
+      </c>
+      <c r="H44" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" s="151">
+        <v>100</v>
+      </c>
+      <c r="K44" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="151">
+        <v>0</v>
+      </c>
+      <c r="M44" s="151">
+        <v>100</v>
+      </c>
+      <c r="N44" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="O44" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="151" t="s">
+        <v>340</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C45" s="88">
+        <v>11</v>
+      </c>
+      <c r="D45" s="151"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="167" t="s">
+        <v>384</v>
+      </c>
+      <c r="H45" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J45" s="151">
+        <v>100</v>
+      </c>
+      <c r="K45" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="151">
+        <v>0</v>
+      </c>
+      <c r="M45" s="151">
+        <v>100</v>
+      </c>
+      <c r="N45" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="O45" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="151" t="s">
+        <v>341</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>422</v>
+      </c>
+      <c r="C46" s="88">
+        <v>11</v>
+      </c>
+      <c r="D46" s="151"/>
+      <c r="E46" s="169"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="167" t="s">
+        <v>385</v>
+      </c>
+      <c r="H46" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="176" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="151">
+        <v>100</v>
+      </c>
+      <c r="K46" s="151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="151">
+        <v>0</v>
+      </c>
+      <c r="M46" s="151">
+        <v>100</v>
+      </c>
+      <c r="N46" s="172" t="s">
+        <v>423</v>
+      </c>
+      <c r="O46" s="172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="147" t="s">
+        <v>342</v>
+      </c>
+      <c r="B47" s="147"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="147"/>
+      <c r="M47" s="147"/>
+      <c r="N47" s="147"/>
+      <c r="O47" s="147"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="152" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48" s="159"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="169"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="168" t="s">
+        <v>386</v>
+      </c>
+      <c r="H48" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="177" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" s="151">
+        <v>4000</v>
+      </c>
+      <c r="K48" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="L48" s="151">
+        <v>0</v>
+      </c>
+      <c r="M48" s="151">
+        <v>4000</v>
+      </c>
+      <c r="N48" s="167"/>
+      <c r="O48" s="167"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA74EE2-392D-41FC-93C3-3ACC3628CA38}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4932,10 +8111,10 @@
     </row>
     <row r="2" spans="1:15" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" s="87">
         <v>11</v>
@@ -4946,7 +8125,7 @@
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
       <c r="G2" s="117" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H2" s="105" t="s">
         <v>18</v>
@@ -4967,13 +8146,13 @@
         <v>100</v>
       </c>
       <c r="N2" s="105" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O2" s="105" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="96.6" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="76" t="s">
         <v>21</v>
       </c>
@@ -4985,7 +8164,7 @@
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
       <c r="G3" s="117" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H3" s="105" t="s">
         <v>24</v>
@@ -5010,10 +8189,10 @@
     </row>
     <row r="4" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="118" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C4" s="115"/>
       <c r="D4" s="71" t="s">
@@ -5022,7 +8201,7 @@
       <c r="E4" s="120"/>
       <c r="F4" s="121"/>
       <c r="G4" s="105" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H4" s="105" t="s">
         <v>24</v>
@@ -5043,18 +8222,18 @@
         <v>100</v>
       </c>
       <c r="N4" s="122" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O4" s="122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="123" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C5" s="115">
         <v>11</v>
@@ -5065,7 +8244,7 @@
       <c r="E5" s="120"/>
       <c r="F5" s="121"/>
       <c r="G5" s="105" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H5" s="105" t="s">
         <v>24</v>
@@ -5086,18 +8265,18 @@
         <v>100</v>
       </c>
       <c r="N5" s="122" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O5" s="122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="123" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C6" s="115">
         <v>11</v>
@@ -5108,7 +8287,7 @@
       <c r="E6" s="120"/>
       <c r="F6" s="121"/>
       <c r="G6" s="105" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H6" s="105" t="s">
         <v>24</v>
@@ -5129,15 +8308,15 @@
         <v>100</v>
       </c>
       <c r="N6" s="122" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O6" s="122" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="96.6" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="125" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B7" s="126" t="s">
         <v>125</v>
@@ -5149,7 +8328,7 @@
       <c r="E7" s="120"/>
       <c r="F7" s="120"/>
       <c r="G7" s="105" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H7" s="105" t="s">
         <v>24</v>
@@ -5173,26 +8352,26 @@
         <v>119</v>
       </c>
       <c r="O7" s="105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="125" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B8" s="126" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C8" s="115">
         <v>3</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E8" s="120"/>
       <c r="F8" s="120"/>
       <c r="G8" s="105" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H8" s="105" t="s">
         <v>24</v>
@@ -5213,18 +8392,18 @@
         <v>100</v>
       </c>
       <c r="N8" s="105" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O8" s="105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="127" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C9" s="115"/>
       <c r="D9" s="71" t="s">
@@ -5233,7 +8412,7 @@
       <c r="E9" s="120"/>
       <c r="F9" s="121"/>
       <c r="G9" s="117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H9" s="105" t="s">
         <v>24</v>
@@ -5254,18 +8433,18 @@
         <v>100</v>
       </c>
       <c r="N9" s="122" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O9" s="122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="127" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C10" s="115"/>
       <c r="D10" s="71" t="s">
@@ -5274,7 +8453,7 @@
       <c r="E10" s="120"/>
       <c r="F10" s="121"/>
       <c r="G10" s="117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H10" s="105" t="s">
         <v>24</v>
@@ -5295,18 +8474,18 @@
         <v>100</v>
       </c>
       <c r="N10" s="122" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O10" s="122" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="128" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B11" s="129" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C11" s="115">
         <v>5</v>
@@ -5317,7 +8496,7 @@
       <c r="E11" s="120"/>
       <c r="F11" s="121"/>
       <c r="G11" s="105" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H11" s="105" t="s">
         <v>24</v>
@@ -5338,18 +8517,18 @@
         <v>100</v>
       </c>
       <c r="N11" s="105" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O11" s="105" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="128" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B12" s="129" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C12" s="115">
         <v>3</v>
@@ -5360,7 +8539,7 @@
       <c r="E12" s="120"/>
       <c r="F12" s="121"/>
       <c r="G12" s="105" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H12" s="105" t="s">
         <v>24</v>
@@ -5381,18 +8560,18 @@
         <v>100</v>
       </c>
       <c r="N12" s="105" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O12" s="105" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="128" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B13" s="129" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C13" s="115">
         <v>3</v>
@@ -5403,7 +8582,7 @@
       <c r="E13" s="120"/>
       <c r="F13" s="121"/>
       <c r="G13" s="105" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H13" s="105" t="s">
         <v>24</v>
@@ -5424,18 +8603,18 @@
         <v>100</v>
       </c>
       <c r="N13" s="105" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O13" s="105" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="128" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B14" s="129" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C14" s="115">
         <v>3</v>
@@ -5446,7 +8625,7 @@
       <c r="E14" s="120"/>
       <c r="F14" s="121"/>
       <c r="G14" s="105" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H14" s="105" t="s">
         <v>24</v>
@@ -5467,25 +8646,25 @@
         <v>100</v>
       </c>
       <c r="N14" s="105" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O14" s="105" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="130" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B15" s="131"/>
       <c r="C15" s="115"/>
       <c r="D15" s="71" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E15" s="120"/>
       <c r="F15" s="121"/>
       <c r="G15" s="117" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H15" s="105" t="s">
         <v>24</v>
@@ -5510,14 +8689,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B58DA4C-395A-426C-A881-04294B21F07E}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/FileCreationTool/FileCreationTool/Forms.xlsx
+++ b/FileCreationTool/FileCreationTool/Forms.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BC8ECD99-8F97-47BA-BD56-83C0496A1740}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{89A73ECD-74F2-475D-8DB2-4533D7EC8C3C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="4" xr2:uid="{99400841-4EE0-4269-9D21-20194F5FB702}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="3" xr2:uid="{99400841-4EE0-4269-9D21-20194F5FB702}"/>
   </bookViews>
   <sheets>
     <sheet name="Hurricane" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="427">
   <si>
     <t>Form Question 
 (Pretty Name)</t>
@@ -1837,13 +1837,7 @@
     <t>additionalcomments</t>
   </si>
   <si>
-    <t>Brush;Forest Areas;Native Growth;Wild Grass</t>
-  </si>
-  <si>
     <t>Dense;Medium;Sparse</t>
-  </si>
-  <si>
-    <t>BRUSH;FOREST;NATIVE;WILD</t>
   </si>
   <si>
     <t>Hazard Rule</t>
@@ -2210,6 +2204,18 @@
   <si>
     <t>3
 3</t>
+  </si>
+  <si>
+    <t>Unable to Map/Locate;
+Policy Cancelled;
+Unable to Access - Animal;
+Unable to Access - Gated;
+Unable to Access - Other;
+Policy Holder Refused Inspection;
+Under Construction;
+Agent Unable to Provide Directions;
+Other;
+Duplicate;</t>
   </si>
 </sst>
 </file>
@@ -5905,8 +5911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F518693-AD00-4B33-AF3A-69E7497499C2}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6007,7 +6013,7 @@
         <v>295</v>
       </c>
       <c r="O2" s="140" t="s">
-        <v>286</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -6251,8 +6257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657C165E-5E08-42BA-B313-0B0D627027AC}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6286,7 +6292,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="171" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -6368,7 +6374,7 @@
         <v>100</v>
       </c>
       <c r="N3" s="173" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O3" s="173" t="s">
         <v>125</v>
@@ -6412,7 +6418,7 @@
         <v>300</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C5" s="164"/>
       <c r="D5" s="151"/>
@@ -6440,10 +6446,10 @@
         <v>100</v>
       </c>
       <c r="N5" s="173" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="O5" s="172" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -6470,7 +6476,7 @@
         <v>302</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C7" s="164"/>
       <c r="D7" s="151"/>
@@ -6498,10 +6504,10 @@
         <v>100</v>
       </c>
       <c r="N7" s="172" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O7" s="172" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -6542,7 +6548,7 @@
         <v>304</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C9" s="164"/>
       <c r="D9" s="151"/>
@@ -6570,10 +6576,10 @@
         <v>100</v>
       </c>
       <c r="N9" s="173" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O9" s="173" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6581,17 +6587,17 @@
         <v>305</v>
       </c>
       <c r="B10" s="153" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D10" s="151"/>
       <c r="E10" s="160"/>
       <c r="F10" s="161" t="s">
-        <v>391</v>
-      </c>
-      <c r="G10" s="167" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="172" t="s">
         <v>352</v>
       </c>
       <c r="H10" s="151" t="s">
@@ -6613,10 +6619,10 @@
         <v>100</v>
       </c>
       <c r="N10" s="172" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O10" s="172" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6624,10 +6630,10 @@
         <v>306</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C11" s="164" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D11" s="151"/>
       <c r="E11" s="160"/>
@@ -6654,10 +6660,10 @@
         <v>100</v>
       </c>
       <c r="N11" s="173" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O11" s="173" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -6698,7 +6704,7 @@
         <v>308</v>
       </c>
       <c r="B13" s="154" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C13" s="164">
         <v>11</v>
@@ -6728,10 +6734,10 @@
         <v>100</v>
       </c>
       <c r="N13" s="173" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O13" s="173" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -6786,7 +6792,7 @@
         <v>100</v>
       </c>
       <c r="N15" s="172" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O15" s="172" t="s">
         <v>206</v>
@@ -6797,7 +6803,7 @@
         <v>311</v>
       </c>
       <c r="B16" s="155" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C16" s="164"/>
       <c r="D16" s="151"/>
@@ -6825,10 +6831,10 @@
         <v>100</v>
       </c>
       <c r="N16" s="172" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O16" s="172" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6864,7 +6870,7 @@
         <v>100</v>
       </c>
       <c r="N17" s="172" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O17" s="172" t="s">
         <v>206</v>
@@ -6903,7 +6909,7 @@
         <v>100</v>
       </c>
       <c r="N18" s="172" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O18" s="172" t="s">
         <v>206</v>
@@ -6933,7 +6939,7 @@
         <v>315</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C20" s="88">
         <v>3</v>
@@ -6974,7 +6980,7 @@
         <v>316</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C21" s="88">
         <v>3</v>
@@ -7015,7 +7021,7 @@
         <v>317</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C22" s="88">
         <v>3</v>
@@ -7056,7 +7062,7 @@
         <v>318</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C23" s="88">
         <v>3</v>
@@ -7097,7 +7103,7 @@
         <v>319</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C24" s="88">
         <v>3</v>
@@ -7161,7 +7167,7 @@
       <c r="D26" s="151"/>
       <c r="E26" s="160"/>
       <c r="F26" s="161" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G26" s="167" t="s">
         <v>365</v>
@@ -7192,7 +7198,7 @@
         <v>322</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C27" s="164"/>
       <c r="D27" s="151"/>
@@ -7220,10 +7226,10 @@
         <v>100</v>
       </c>
       <c r="N27" s="172" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O27" s="172" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -7231,7 +7237,7 @@
         <v>323</v>
       </c>
       <c r="B28" s="157" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C28" s="88">
         <v>11</v>
@@ -7261,7 +7267,7 @@
         <v>100</v>
       </c>
       <c r="N28" s="172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O28" s="173" t="s">
         <v>206</v>
@@ -7276,7 +7282,7 @@
       <c r="D29" s="151"/>
       <c r="E29" s="160"/>
       <c r="F29" s="161" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G29" s="167" t="s">
         <v>368</v>
@@ -7307,7 +7313,7 @@
         <v>325</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C30" s="164"/>
       <c r="D30" s="151"/>
@@ -7335,10 +7341,10 @@
         <v>100</v>
       </c>
       <c r="N30" s="172" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O30" s="172" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7346,7 +7352,7 @@
         <v>326</v>
       </c>
       <c r="B31" s="157" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C31" s="88">
         <v>11</v>
@@ -7376,7 +7382,7 @@
         <v>100</v>
       </c>
       <c r="N31" s="172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O31" s="173" t="s">
         <v>206</v>
@@ -7391,7 +7397,7 @@
       <c r="D32" s="151"/>
       <c r="E32" s="160"/>
       <c r="F32" s="161" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G32" s="167" t="s">
         <v>371</v>
@@ -7422,7 +7428,7 @@
         <v>328</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C33" s="164"/>
       <c r="D33" s="151"/>
@@ -7450,10 +7456,10 @@
         <v>100</v>
       </c>
       <c r="N33" s="172" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O33" s="172" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -7461,7 +7467,7 @@
         <v>329</v>
       </c>
       <c r="B34" s="157" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C34" s="88">
         <v>11</v>
@@ -7491,7 +7497,7 @@
         <v>100</v>
       </c>
       <c r="N34" s="172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O34" s="173" t="s">
         <v>206</v>
@@ -7506,7 +7512,7 @@
       <c r="D35" s="151"/>
       <c r="E35" s="169"/>
       <c r="F35" s="161" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G35" s="167" t="s">
         <v>374</v>
@@ -7537,7 +7543,7 @@
         <v>331</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C36" s="164"/>
       <c r="D36" s="151"/>
@@ -7564,11 +7570,11 @@
       <c r="M36" s="151">
         <v>100</v>
       </c>
-      <c r="N36" s="167" t="s">
-        <v>389</v>
-      </c>
-      <c r="O36" s="167" t="s">
-        <v>387</v>
+      <c r="N36" s="172" t="s">
+        <v>406</v>
+      </c>
+      <c r="O36" s="172" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7576,7 +7582,7 @@
         <v>332</v>
       </c>
       <c r="B37" s="157" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C37" s="88">
         <v>11</v>
@@ -7606,7 +7612,7 @@
         <v>100</v>
       </c>
       <c r="N37" s="172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O37" s="173" t="s">
         <v>206</v>
@@ -7617,7 +7623,7 @@
         <v>333</v>
       </c>
       <c r="B38" s="158" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C38" s="164" t="s">
         <v>344</v>
@@ -7625,7 +7631,7 @@
       <c r="D38" s="151"/>
       <c r="E38" s="169"/>
       <c r="F38" s="161"/>
-      <c r="G38" s="167" t="s">
+      <c r="G38" s="172" t="s">
         <v>377</v>
       </c>
       <c r="H38" s="151" t="s">
@@ -7647,10 +7653,10 @@
         <v>100</v>
       </c>
       <c r="N38" s="172" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O38" s="167" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7658,7 +7664,7 @@
         <v>334</v>
       </c>
       <c r="B39" s="157" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C39" s="164">
         <v>5</v>
@@ -7699,7 +7705,7 @@
         <v>335</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C40" s="164" t="s">
         <v>345</v>
@@ -7729,10 +7735,10 @@
         <v>100</v>
       </c>
       <c r="N40" s="172" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O40" s="167" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="26.4" x14ac:dyDescent="0.3">
@@ -7740,7 +7746,7 @@
         <v>336</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C41" s="88">
         <v>11</v>
@@ -7770,7 +7776,7 @@
         <v>100</v>
       </c>
       <c r="N41" s="172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O41" s="172" t="s">
         <v>206</v>
@@ -7781,7 +7787,7 @@
         <v>337</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C42" s="88">
         <v>5</v>
@@ -7811,7 +7817,7 @@
         <v>100</v>
       </c>
       <c r="N42" s="172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O42" s="172" t="s">
         <v>206</v>
@@ -7822,7 +7828,7 @@
         <v>338</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C43" s="88">
         <v>3</v>
@@ -7852,7 +7858,7 @@
         <v>100</v>
       </c>
       <c r="N43" s="172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O43" s="172" t="s">
         <v>206</v>
@@ -7863,7 +7869,7 @@
         <v>339</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C44" s="88">
         <v>3</v>
@@ -7893,7 +7899,7 @@
         <v>100</v>
       </c>
       <c r="N44" s="172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O44" s="172" t="s">
         <v>206</v>
@@ -7904,7 +7910,7 @@
         <v>340</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C45" s="88">
         <v>11</v>
@@ -7934,7 +7940,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O45" s="172" t="s">
         <v>206</v>
@@ -7945,7 +7951,7 @@
         <v>341</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C46" s="88">
         <v>11</v>
@@ -7975,7 +7981,7 @@
         <v>100</v>
       </c>
       <c r="N46" s="172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O46" s="172" t="s">
         <v>206</v>
